--- a/Assets/Excel/MonsterStateInfo.xlsx
+++ b/Assets/Excel/MonsterStateInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A2BFAF-0F02-4D37-A57A-CEA01DDAEF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5C2B1B-4B2B-4ACA-A46A-FD9F9EA84846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="14892" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -28,9 +28,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>point</t>
   </si>
   <si>
@@ -44,13 +41,21 @@
   </si>
   <si>
     <t>DefaultGolemBaseStateInfo</t>
+  </si>
+  <si>
+    <t>defence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +76,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,13 +115,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -414,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -428,26 +457,29 @@
     <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -455,13 +487,16 @@
       <c r="D2">
         <v>8</v>
       </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -469,13 +504,16 @@
       <c r="D3">
         <v>15</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>10000</v>
@@ -483,19 +521,25 @@
       <c r="D4">
         <v>50</v>
       </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1000</v>
       </c>
       <c r="D5">
         <v>100</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MonsterStateInfo.xlsx
+++ b/Assets/Excel/MonsterStateInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5C2B1B-4B2B-4ACA-A46A-FD9F9EA84846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ED4BFF-3576-45D1-9F8A-C376125CA24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="492" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,11 +43,11 @@
     <t>DefaultGolemBaseStateInfo</t>
   </si>
   <si>
-    <t>defence</t>
+    <t>maxHealth</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>maxHealth</t>
+    <t>defense</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -465,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -482,13 +482,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -516,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>50</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
